--- a/data/pca/factorExposure/factorExposure_2016-11-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01846862553305927</v>
+        <v>0.01550835197882239</v>
       </c>
       <c r="C2">
-        <v>-0.04666650376026201</v>
+        <v>-0.04085205680597394</v>
       </c>
       <c r="D2">
-        <v>0.02737249459515137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05784836623923175</v>
+      </c>
+      <c r="E2">
+        <v>0.02650193383360437</v>
+      </c>
+      <c r="F2">
+        <v>0.09359302025072332</v>
+      </c>
+      <c r="G2">
+        <v>0.0282920323139046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05385814162991609</v>
+        <v>0.03356783680523482</v>
       </c>
       <c r="C3">
-        <v>-0.09703935044270592</v>
+        <v>-0.08388711044313493</v>
       </c>
       <c r="D3">
-        <v>0.05382570727774337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.101606014619611</v>
+      </c>
+      <c r="E3">
+        <v>0.0415713574661407</v>
+      </c>
+      <c r="F3">
+        <v>0.06103865440002276</v>
+      </c>
+      <c r="G3">
+        <v>-0.06630269249487655</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0622057723518332</v>
+        <v>0.05860750119109998</v>
       </c>
       <c r="C4">
-        <v>-0.06362380421971049</v>
+        <v>-0.06050429356121116</v>
       </c>
       <c r="D4">
-        <v>0.01026633611156448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05690128130940374</v>
+      </c>
+      <c r="E4">
+        <v>0.02189232841330967</v>
+      </c>
+      <c r="F4">
+        <v>0.09141543870207501</v>
+      </c>
+      <c r="G4">
+        <v>-0.04018896870767854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02755067657926909</v>
+        <v>0.03536065824827048</v>
       </c>
       <c r="C6">
-        <v>-0.04437001250540053</v>
+        <v>-0.03482804646121038</v>
       </c>
       <c r="D6">
-        <v>0.01728026973671623</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06547659595796618</v>
+      </c>
+      <c r="E6">
+        <v>0.03345126410755721</v>
+      </c>
+      <c r="F6">
+        <v>0.08497829314489008</v>
+      </c>
+      <c r="G6">
+        <v>-0.01874178253427802</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0244239577836774</v>
+        <v>0.02187941508113437</v>
       </c>
       <c r="C7">
-        <v>-0.04056802244033873</v>
+        <v>-0.03386920204814747</v>
       </c>
       <c r="D7">
-        <v>-0.01196953162672036</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.03260112223755916</v>
+      </c>
+      <c r="E7">
+        <v>0.009796753032196414</v>
+      </c>
+      <c r="F7">
+        <v>0.1197165017326494</v>
+      </c>
+      <c r="G7">
+        <v>-0.006391133588592412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.000356941463686913</v>
+        <v>0.005173574312253295</v>
       </c>
       <c r="C8">
-        <v>-0.01270194615560363</v>
+        <v>-0.02025507893199567</v>
       </c>
       <c r="D8">
-        <v>0.01954371129745114</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0361765948263028</v>
+      </c>
+      <c r="E8">
+        <v>0.01851699644413475</v>
+      </c>
+      <c r="F8">
+        <v>0.06265813748807277</v>
+      </c>
+      <c r="G8">
+        <v>-0.009977250400839769</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02856249831762312</v>
+        <v>0.03706154332729686</v>
       </c>
       <c r="C9">
-        <v>-0.04307355461031002</v>
+        <v>-0.04726578263302111</v>
       </c>
       <c r="D9">
-        <v>0.005689537966359072</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04085760286952887</v>
+      </c>
+      <c r="E9">
+        <v>0.01737339544654887</v>
+      </c>
+      <c r="F9">
+        <v>0.09698210830715673</v>
+      </c>
+      <c r="G9">
+        <v>-0.02313494272737785</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.0770840537636638</v>
+        <v>0.09560954035259343</v>
       </c>
       <c r="C10">
-        <v>0.1944717640954734</v>
+        <v>0.190910693531466</v>
       </c>
       <c r="D10">
-        <v>0.01373691080432648</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001845071638611445</v>
+      </c>
+      <c r="E10">
+        <v>0.03724423639178061</v>
+      </c>
+      <c r="F10">
+        <v>0.0450296491227799</v>
+      </c>
+      <c r="G10">
+        <v>-0.004493942455514509</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04288038623757155</v>
+        <v>0.0369815942698917</v>
       </c>
       <c r="C11">
-        <v>-0.05443590124187617</v>
+        <v>-0.050178479830237</v>
       </c>
       <c r="D11">
-        <v>-0.004539872399221754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02901001683029368</v>
+      </c>
+      <c r="E11">
+        <v>-0.008240462385642508</v>
+      </c>
+      <c r="F11">
+        <v>0.06952045458826094</v>
+      </c>
+      <c r="G11">
+        <v>-0.01350160141893962</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03652409163284619</v>
+        <v>0.03754329790540436</v>
       </c>
       <c r="C12">
-        <v>-0.0453266781103042</v>
+        <v>-0.04534360905143765</v>
       </c>
       <c r="D12">
-        <v>-0.005467942928163694</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02222740077974474</v>
+      </c>
+      <c r="E12">
+        <v>9.3794276713136e-05</v>
+      </c>
+      <c r="F12">
+        <v>0.07099190447006977</v>
+      </c>
+      <c r="G12">
+        <v>-0.009276405729408573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01139571537719964</v>
+        <v>0.01306949974190902</v>
       </c>
       <c r="C13">
-        <v>-0.04419012467459316</v>
+        <v>-0.04076085270503991</v>
       </c>
       <c r="D13">
-        <v>0.02067316681597856</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06388662672844556</v>
+      </c>
+      <c r="E13">
+        <v>0.0367255101477799</v>
+      </c>
+      <c r="F13">
+        <v>0.1289911772540568</v>
+      </c>
+      <c r="G13">
+        <v>-0.01913799448083723</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.007738558510979676</v>
+        <v>0.006275567204653961</v>
       </c>
       <c r="C14">
-        <v>-0.03377188979653883</v>
+        <v>-0.02838580197644956</v>
       </c>
       <c r="D14">
-        <v>-0.01191901788514585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.02900502883612656</v>
+      </c>
+      <c r="E14">
+        <v>0.01005665417047955</v>
+      </c>
+      <c r="F14">
+        <v>0.1011844356374692</v>
+      </c>
+      <c r="G14">
+        <v>0.008238157996749072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001152964992163744</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0009014677848106461</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.001527396370296661</v>
+      </c>
+      <c r="E15">
+        <v>-0.0006010650869766337</v>
+      </c>
+      <c r="F15">
+        <v>0.0004599897957236232</v>
+      </c>
+      <c r="G15">
+        <v>0.001053900395215924</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03618578776653258</v>
+        <v>0.03424895102860953</v>
       </c>
       <c r="C16">
-        <v>-0.04075459064570137</v>
+        <v>-0.04363336382137798</v>
       </c>
       <c r="D16">
-        <v>0.002325065093931839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02622365758374286</v>
+      </c>
+      <c r="E16">
+        <v>0.00666585724613298</v>
+      </c>
+      <c r="F16">
+        <v>0.07413754580877595</v>
+      </c>
+      <c r="G16">
+        <v>0.0006432375420864376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03191414768775182</v>
+        <v>0.01850876543939374</v>
       </c>
       <c r="C19">
-        <v>-0.0628238723940278</v>
+        <v>-0.049621758502464</v>
       </c>
       <c r="D19">
-        <v>0.05418682772969517</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1038128274636557</v>
+      </c>
+      <c r="E19">
+        <v>0.04781971673285793</v>
+      </c>
+      <c r="F19">
+        <v>0.1254060979645678</v>
+      </c>
+      <c r="G19">
+        <v>0.01695524289016013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01571101960105761</v>
+        <v>0.01450085767358817</v>
       </c>
       <c r="C20">
-        <v>-0.04490091551617779</v>
+        <v>-0.03854251227867261</v>
       </c>
       <c r="D20">
-        <v>0.02622708844537274</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0462713894115891</v>
+      </c>
+      <c r="E20">
+        <v>0.04279215726710407</v>
+      </c>
+      <c r="F20">
+        <v>0.09768225005135653</v>
+      </c>
+      <c r="G20">
+        <v>-0.00281709930991585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.009182534750537616</v>
+        <v>0.007914341091757891</v>
       </c>
       <c r="C21">
-        <v>-0.04804974171534345</v>
+        <v>-0.04217292476084562</v>
       </c>
       <c r="D21">
-        <v>0.03896896313774378</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07133044330979861</v>
+      </c>
+      <c r="E21">
+        <v>0.03931930129869185</v>
+      </c>
+      <c r="F21">
+        <v>0.1437392751510485</v>
+      </c>
+      <c r="G21">
+        <v>-0.002889815524358041</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003564033356737482</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01486046954223088</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02936283144019171</v>
+      </c>
+      <c r="E22">
+        <v>0.003509001563770329</v>
+      </c>
+      <c r="F22">
+        <v>0.01737718447693144</v>
+      </c>
+      <c r="G22">
+        <v>-0.03530098116959104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003613647053264255</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01482643413839197</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02908907812936509</v>
+      </c>
+      <c r="E23">
+        <v>0.003786409577642956</v>
+      </c>
+      <c r="F23">
+        <v>0.01709185980110142</v>
+      </c>
+      <c r="G23">
+        <v>-0.03529766809333753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03057264316586102</v>
+        <v>0.0329136339809098</v>
       </c>
       <c r="C24">
-        <v>-0.04666855525725999</v>
+        <v>-0.05043928759085099</v>
       </c>
       <c r="D24">
-        <v>-0.005684937495237454</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02387400043333218</v>
+      </c>
+      <c r="E24">
+        <v>0.00147150445995961</v>
+      </c>
+      <c r="F24">
+        <v>0.07955796485383856</v>
+      </c>
+      <c r="G24">
+        <v>-0.006377304618744892</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04775373322305327</v>
+        <v>0.04312693832547277</v>
       </c>
       <c r="C25">
-        <v>-0.05821201107472406</v>
+        <v>-0.05688184799916886</v>
       </c>
       <c r="D25">
-        <v>-0.01546978296975142</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02175543868066519</v>
+      </c>
+      <c r="E25">
+        <v>-0.001623529096820837</v>
+      </c>
+      <c r="F25">
+        <v>0.08164775178029088</v>
+      </c>
+      <c r="G25">
+        <v>-0.02252832381663539</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01016016485668471</v>
+        <v>0.01456428079329264</v>
       </c>
       <c r="C26">
-        <v>-0.01685574936534092</v>
+        <v>-0.01428494048044434</v>
       </c>
       <c r="D26">
-        <v>0.006134987650565107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02298425149688348</v>
+      </c>
+      <c r="E26">
+        <v>0.01228298766121537</v>
+      </c>
+      <c r="F26">
+        <v>0.08115619965970627</v>
+      </c>
+      <c r="G26">
+        <v>0.01380135363632316</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09192139102818285</v>
+        <v>0.1283977329307434</v>
       </c>
       <c r="C28">
-        <v>0.2221298274493021</v>
+        <v>0.2406802362950281</v>
       </c>
       <c r="D28">
-        <v>0.009679770185369665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.0157028262743824</v>
+      </c>
+      <c r="E28">
+        <v>0.03694020322269822</v>
+      </c>
+      <c r="F28">
+        <v>0.05833638371638861</v>
+      </c>
+      <c r="G28">
+        <v>-0.01541477692096125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01211619599921502</v>
+        <v>0.007429562893751667</v>
       </c>
       <c r="C29">
-        <v>-0.02602002960925922</v>
+        <v>-0.02417591273255552</v>
       </c>
       <c r="D29">
-        <v>-0.01265873494435214</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01863651938241931</v>
+      </c>
+      <c r="E29">
+        <v>0.01383037991302852</v>
+      </c>
+      <c r="F29">
+        <v>0.09247358463358095</v>
+      </c>
+      <c r="G29">
+        <v>-0.004235879166143135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04398882024799622</v>
+        <v>0.03985957412100203</v>
       </c>
       <c r="C30">
-        <v>-0.07050991656501437</v>
+        <v>-0.05908836431016748</v>
       </c>
       <c r="D30">
-        <v>0.01252400115992531</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09965744739965299</v>
+      </c>
+      <c r="E30">
+        <v>0.0008583743198820868</v>
+      </c>
+      <c r="F30">
+        <v>0.111779457260007</v>
+      </c>
+      <c r="G30">
+        <v>0.01727676380907538</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04327133444708282</v>
+        <v>0.05605977069584965</v>
       </c>
       <c r="C31">
-        <v>-0.03336250981668578</v>
+        <v>-0.04616630907568579</v>
       </c>
       <c r="D31">
-        <v>-0.01042842064177885</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.001565448097609366</v>
+      </c>
+      <c r="E31">
+        <v>0.03474413864288836</v>
+      </c>
+      <c r="F31">
+        <v>0.0897596297148421</v>
+      </c>
+      <c r="G31">
+        <v>-0.04220407188953754</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007336117659996874</v>
+        <v>0.003611173899155576</v>
       </c>
       <c r="C32">
-        <v>-0.04051139777165466</v>
+        <v>-0.03090010965924418</v>
       </c>
       <c r="D32">
-        <v>0.0227346516566696</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04934176446646658</v>
+      </c>
+      <c r="E32">
+        <v>0.002173845583185445</v>
+      </c>
+      <c r="F32">
+        <v>0.07303484959084731</v>
+      </c>
+      <c r="G32">
+        <v>0.00944493798315608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03001117277204373</v>
+        <v>0.02553935649772929</v>
       </c>
       <c r="C33">
-        <v>-0.06125733726370624</v>
+        <v>-0.05085762258756334</v>
       </c>
       <c r="D33">
-        <v>0.02015975710264505</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07873089549823321</v>
+      </c>
+      <c r="E33">
+        <v>0.01884172615826805</v>
+      </c>
+      <c r="F33">
+        <v>0.1412432742503655</v>
+      </c>
+      <c r="G33">
+        <v>-0.0204664744603252</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05291753439771806</v>
+        <v>0.04230124995525284</v>
       </c>
       <c r="C34">
-        <v>-0.05622410927261133</v>
+        <v>-0.06255877405102182</v>
       </c>
       <c r="D34">
-        <v>-0.01062772111374627</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02948342042365584</v>
+      </c>
+      <c r="E34">
+        <v>-0.0163402648721355</v>
+      </c>
+      <c r="F34">
+        <v>0.07645624005011208</v>
+      </c>
+      <c r="G34">
+        <v>-0.009389299914430035</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.009359315819436222</v>
+        <v>0.01519630106940387</v>
       </c>
       <c r="C36">
-        <v>-0.01292336650654662</v>
+        <v>-0.009723097394135655</v>
       </c>
       <c r="D36">
-        <v>-0.0003208591538786695</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02451951501519955</v>
+      </c>
+      <c r="E36">
+        <v>0.01707200974729616</v>
+      </c>
+      <c r="F36">
+        <v>0.09172467095266511</v>
+      </c>
+      <c r="G36">
+        <v>-0.01088251848180575</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03518537739375451</v>
+        <v>0.02743099777736219</v>
       </c>
       <c r="C38">
-        <v>-0.02430345367391256</v>
+        <v>-0.02255312036216742</v>
       </c>
       <c r="D38">
-        <v>-0.005664967570883485</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02436579074480846</v>
+      </c>
+      <c r="E38">
+        <v>0.01932993822818868</v>
+      </c>
+      <c r="F38">
+        <v>0.08036211991655641</v>
+      </c>
+      <c r="G38">
+        <v>-0.007503907681640628</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04141771027092872</v>
+        <v>0.03850443805075573</v>
       </c>
       <c r="C39">
-        <v>-0.07263640573831644</v>
+        <v>-0.06539825832641363</v>
       </c>
       <c r="D39">
-        <v>0.01074878436120559</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04682046556277454</v>
+      </c>
+      <c r="E39">
+        <v>-0.00275193593520062</v>
+      </c>
+      <c r="F39">
+        <v>0.09643706590853669</v>
+      </c>
+      <c r="G39">
+        <v>0.01805576655448821</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01799260210789294</v>
+        <v>0.0179381164782483</v>
       </c>
       <c r="C40">
-        <v>-0.02699096424996537</v>
+        <v>-0.03629804350814379</v>
       </c>
       <c r="D40">
-        <v>0.03021247814336395</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.0384038367274404</v>
+      </c>
+      <c r="E40">
+        <v>0.04633664412208326</v>
+      </c>
+      <c r="F40">
+        <v>0.1080924223704304</v>
+      </c>
+      <c r="G40">
+        <v>-0.05069466043956357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01064313681122905</v>
+        <v>0.01845617530459371</v>
       </c>
       <c r="C41">
-        <v>-0.003789553978153584</v>
+        <v>-0.003059463545964829</v>
       </c>
       <c r="D41">
-        <v>-0.004305731133056405</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01809286800596085</v>
+      </c>
+      <c r="E41">
+        <v>0.02227019898243653</v>
+      </c>
+      <c r="F41">
+        <v>0.08142950337635418</v>
+      </c>
+      <c r="G41">
+        <v>-0.003431701033077441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.005314126701019363</v>
+        <v>0.003156374683931211</v>
       </c>
       <c r="C42">
-        <v>-0.01768064701213392</v>
+        <v>-0.009161533200670624</v>
       </c>
       <c r="D42">
-        <v>0.02173415571336714</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.006298957696663843</v>
+      </c>
+      <c r="E42">
+        <v>0.01651363829055825</v>
+      </c>
+      <c r="F42">
+        <v>-0.01811613021798126</v>
+      </c>
+      <c r="G42">
+        <v>-0.008898645639283319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03165406572234765</v>
+        <v>0.03115897367576629</v>
       </c>
       <c r="C43">
-        <v>-0.01775355309222624</v>
+        <v>-0.0175577387464494</v>
       </c>
       <c r="D43">
-        <v>-0.000525678809001534</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03934186673689131</v>
+      </c>
+      <c r="E43">
+        <v>0.01831387514455022</v>
+      </c>
+      <c r="F43">
+        <v>0.1007525321629296</v>
+      </c>
+      <c r="G43">
+        <v>-0.0259828755310368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02079054992809006</v>
+        <v>0.01571846942735421</v>
       </c>
       <c r="C44">
-        <v>-0.05399372350418254</v>
+        <v>-0.05261529693899997</v>
       </c>
       <c r="D44">
-        <v>0.01094960702188238</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04322792851256124</v>
+      </c>
+      <c r="E44">
+        <v>0.03621148464950567</v>
+      </c>
+      <c r="F44">
+        <v>0.108245718734271</v>
+      </c>
+      <c r="G44">
+        <v>0.001991008689988133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.0005825217447589339</v>
+        <v>0.008257966395026432</v>
       </c>
       <c r="C46">
-        <v>-0.02044872715921705</v>
+        <v>-0.0221770521943856</v>
       </c>
       <c r="D46">
-        <v>-0.01240220313692679</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01320478929929549</v>
+      </c>
+      <c r="E46">
+        <v>0.01877003318066469</v>
+      </c>
+      <c r="F46">
+        <v>0.1061711716211738</v>
+      </c>
+      <c r="G46">
+        <v>0.001535754849333322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07842820571607222</v>
+        <v>0.08770381139155185</v>
       </c>
       <c r="C47">
-        <v>-0.07290373523761925</v>
+        <v>-0.07701540223014351</v>
       </c>
       <c r="D47">
-        <v>-0.005122750074943576</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.007279496855134264</v>
+      </c>
+      <c r="E47">
+        <v>0.04376976756210872</v>
+      </c>
+      <c r="F47">
+        <v>0.08736194592330643</v>
+      </c>
+      <c r="G47">
+        <v>-0.04464008331004454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01829039965162104</v>
+        <v>0.01641482255244022</v>
       </c>
       <c r="C48">
-        <v>-0.01313033055125828</v>
+        <v>-0.01513545474389809</v>
       </c>
       <c r="D48">
-        <v>-0.00498776806159669</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01742837806994218</v>
+      </c>
+      <c r="E48">
+        <v>0.02801158217302836</v>
+      </c>
+      <c r="F48">
+        <v>0.1042075624141468</v>
+      </c>
+      <c r="G48">
+        <v>-0.00688595164324156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08758092431648479</v>
+        <v>0.07353154637517793</v>
       </c>
       <c r="C50">
-        <v>-0.06984369148711304</v>
+        <v>-0.06789985105796048</v>
       </c>
       <c r="D50">
-        <v>-0.01898345141643042</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.001607368271817141</v>
+      </c>
+      <c r="E50">
+        <v>0.03814076879510438</v>
+      </c>
+      <c r="F50">
+        <v>0.08094668726480858</v>
+      </c>
+      <c r="G50">
+        <v>-0.07412348520449598</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01285489855201346</v>
+        <v>0.01075871898225659</v>
       </c>
       <c r="C51">
-        <v>-0.04594590537685092</v>
+        <v>-0.03367929678995491</v>
       </c>
       <c r="D51">
-        <v>0.006151310194058371</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04704891065158146</v>
+      </c>
+      <c r="E51">
+        <v>0.004246636256416063</v>
+      </c>
+      <c r="F51">
+        <v>0.09323551632621208</v>
+      </c>
+      <c r="G51">
+        <v>0.01623594491676249</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09604894502631332</v>
+        <v>0.09175531892463082</v>
       </c>
       <c r="C53">
-        <v>-0.07502911624057908</v>
+        <v>-0.08625138839770127</v>
       </c>
       <c r="D53">
-        <v>-0.03082392296672922</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03369477500655336</v>
+      </c>
+      <c r="E53">
+        <v>0.04765323457672227</v>
+      </c>
+      <c r="F53">
+        <v>0.0919208745078471</v>
+      </c>
+      <c r="G53">
+        <v>-0.05090509464814213</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.02978521409006329</v>
+        <v>0.03009397961850177</v>
       </c>
       <c r="C54">
-        <v>-0.01496783005201237</v>
+        <v>-0.02340739269553975</v>
       </c>
       <c r="D54">
-        <v>0.003097091152187272</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03275192415377419</v>
+      </c>
+      <c r="E54">
+        <v>0.01545622768709537</v>
+      </c>
+      <c r="F54">
+        <v>0.1036907757116561</v>
+      </c>
+      <c r="G54">
+        <v>-0.003186939195735036</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07474477075536565</v>
+        <v>0.08387556782246047</v>
       </c>
       <c r="C55">
-        <v>-0.06891276147109059</v>
+        <v>-0.06872810856373361</v>
       </c>
       <c r="D55">
-        <v>-0.02893992651765921</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04104228814868732</v>
+      </c>
+      <c r="E55">
+        <v>0.04459679067387177</v>
+      </c>
+      <c r="F55">
+        <v>0.06282690132785917</v>
+      </c>
+      <c r="G55">
+        <v>-0.0436909014187022</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.152190671743148</v>
+        <v>0.1456415670206481</v>
       </c>
       <c r="C56">
-        <v>-0.09267054979890783</v>
+        <v>-0.1020848868283946</v>
       </c>
       <c r="D56">
-        <v>-0.02688685668539286</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.04234456080945696</v>
+      </c>
+      <c r="E56">
+        <v>0.04966277302985</v>
+      </c>
+      <c r="F56">
+        <v>0.05670176812280463</v>
+      </c>
+      <c r="G56">
+        <v>-0.05104232577672759</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.006497353001534196</v>
+        <v>0.002903903031811525</v>
       </c>
       <c r="C57">
-        <v>-0.0009696735451680446</v>
+        <v>-0.0003486933556270985</v>
       </c>
       <c r="D57">
-        <v>0.03010507140609923</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02115837817647518</v>
+      </c>
+      <c r="E57">
+        <v>0.01193113685542527</v>
+      </c>
+      <c r="F57">
+        <v>0.01134973325455916</v>
+      </c>
+      <c r="G57">
+        <v>-0.0002147139531517182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.06699862298427053</v>
+        <v>0.03882896654778593</v>
       </c>
       <c r="C58">
-        <v>-0.04859174106994078</v>
+        <v>-0.02820588433224669</v>
       </c>
       <c r="D58">
-        <v>0.956303191399044</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6081775491497181</v>
+      </c>
+      <c r="E58">
+        <v>0.6694326509844397</v>
+      </c>
+      <c r="F58">
+        <v>-0.3549354211258602</v>
+      </c>
+      <c r="G58">
+        <v>0.01620204280781038</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1331078932177816</v>
+        <v>0.1451767687778865</v>
       </c>
       <c r="C59">
-        <v>0.2054987513526824</v>
+        <v>0.1937489303822375</v>
       </c>
       <c r="D59">
-        <v>0.01653662328737122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02639926615650044</v>
+      </c>
+      <c r="E59">
+        <v>0.01223583283841791</v>
+      </c>
+      <c r="F59">
+        <v>0.02644904275317389</v>
+      </c>
+      <c r="G59">
+        <v>0.03063873181276061</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3138235841192399</v>
+        <v>0.2850822111050867</v>
       </c>
       <c r="C60">
-        <v>-0.08154523737003092</v>
+        <v>-0.09088606180603813</v>
       </c>
       <c r="D60">
-        <v>0.006079589899939493</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1771490962052566</v>
+      </c>
+      <c r="E60">
+        <v>-0.2915767914482206</v>
+      </c>
+      <c r="F60">
+        <v>-0.1432053024827042</v>
+      </c>
+      <c r="G60">
+        <v>-0.05009640186395448</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.0377296562454769</v>
+        <v>0.04098209403435625</v>
       </c>
       <c r="C61">
-        <v>-0.0607927984093958</v>
+        <v>-0.05926884037810491</v>
       </c>
       <c r="D61">
-        <v>0.010142859038282</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04405118085688652</v>
+      </c>
+      <c r="E61">
+        <v>0.004576981000725325</v>
+      </c>
+      <c r="F61">
+        <v>0.08757077421539346</v>
+      </c>
+      <c r="G61">
+        <v>-0.01132116820810836</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01643586701122302</v>
+        <v>0.0165029484990774</v>
       </c>
       <c r="C63">
-        <v>-0.03272965614150842</v>
+        <v>-0.02966471597879977</v>
       </c>
       <c r="D63">
-        <v>-0.007596159303173163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01929599480705856</v>
+      </c>
+      <c r="E63">
+        <v>0.02068726941158855</v>
+      </c>
+      <c r="F63">
+        <v>0.08488401065587839</v>
+      </c>
+      <c r="G63">
+        <v>-0.0273527919261798</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05057291168615191</v>
+        <v>0.0542336591359073</v>
       </c>
       <c r="C64">
-        <v>-0.02748138184739836</v>
+        <v>-0.04778983482140403</v>
       </c>
       <c r="D64">
-        <v>-0.0118198325956253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01108730344890911</v>
+      </c>
+      <c r="E64">
+        <v>0.005689777680725982</v>
+      </c>
+      <c r="F64">
+        <v>0.09567052600110477</v>
+      </c>
+      <c r="G64">
+        <v>-0.0002236694862305213</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08922227568365637</v>
+        <v>0.0690811917584927</v>
       </c>
       <c r="C65">
-        <v>-0.05126159029552242</v>
+        <v>-0.03782986168625892</v>
       </c>
       <c r="D65">
-        <v>0.01599773740351376</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07848426150172316</v>
+      </c>
+      <c r="E65">
+        <v>0.01102934560623947</v>
+      </c>
+      <c r="F65">
+        <v>0.03871158034921312</v>
+      </c>
+      <c r="G65">
+        <v>0.0002609818296679825</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06637722830601578</v>
+        <v>0.05217357824170273</v>
       </c>
       <c r="C66">
-        <v>-0.1087694267419352</v>
+        <v>-0.08954994115552264</v>
       </c>
       <c r="D66">
-        <v>0.01436050883941491</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07232486041708508</v>
+      </c>
+      <c r="E66">
+        <v>-0.004613055227756921</v>
+      </c>
+      <c r="F66">
+        <v>0.1006432330311383</v>
+      </c>
+      <c r="G66">
+        <v>-0.0008516460738963681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06015016193189658</v>
+        <v>0.04979149043695805</v>
       </c>
       <c r="C67">
-        <v>-0.02980703376745521</v>
+        <v>-0.02820841828702962</v>
       </c>
       <c r="D67">
-        <v>-0.01084359279061497</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01174250486847892</v>
+      </c>
+      <c r="E67">
+        <v>0.009492787761732742</v>
+      </c>
+      <c r="F67">
+        <v>0.06444962037430246</v>
+      </c>
+      <c r="G67">
+        <v>-0.01128392491395169</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1187111248947453</v>
+        <v>0.1513193262314698</v>
       </c>
       <c r="C68">
-        <v>0.2924769398876217</v>
+        <v>0.263262493426888</v>
       </c>
       <c r="D68">
-        <v>0.01219416794471228</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01835211806887423</v>
+      </c>
+      <c r="E68">
+        <v>0.03973360056617137</v>
+      </c>
+      <c r="F68">
+        <v>0.0224223981444458</v>
+      </c>
+      <c r="G68">
+        <v>-0.006357914163964783</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08716388699484788</v>
+        <v>0.08754449867321018</v>
       </c>
       <c r="C69">
-        <v>-0.06848578568468076</v>
+        <v>-0.08218483650915497</v>
       </c>
       <c r="D69">
-        <v>-0.03541184471695542</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008199163032560387</v>
+      </c>
+      <c r="E69">
+        <v>0.01626888160369137</v>
+      </c>
+      <c r="F69">
+        <v>0.09819263109343798</v>
+      </c>
+      <c r="G69">
+        <v>-0.0186701282765158</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1201465207817183</v>
+        <v>0.1393532863156612</v>
       </c>
       <c r="C71">
-        <v>0.2423077785641326</v>
+        <v>0.2372748666075035</v>
       </c>
       <c r="D71">
-        <v>0.02099271772722039</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01498582267060834</v>
+      </c>
+      <c r="E71">
+        <v>0.04588208340835545</v>
+      </c>
+      <c r="F71">
+        <v>0.065329789863248</v>
+      </c>
+      <c r="G71">
+        <v>-0.02814143261736462</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.08021382609688382</v>
+        <v>0.08930485480444676</v>
       </c>
       <c r="C72">
-        <v>-0.05293729681561255</v>
+        <v>-0.05536679676605785</v>
       </c>
       <c r="D72">
-        <v>-0.03866251594694939</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00951594522153841</v>
+      </c>
+      <c r="E72">
+        <v>-0.01290934345445739</v>
+      </c>
+      <c r="F72">
+        <v>0.08224551669614225</v>
+      </c>
+      <c r="G72">
+        <v>-0.02224968080736013</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.440353794953849</v>
+        <v>0.3524956945777903</v>
       </c>
       <c r="C73">
-        <v>-0.06621863595494691</v>
+        <v>-0.07042109000320415</v>
       </c>
       <c r="D73">
-        <v>0.05741891979722438</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3695046079457429</v>
+      </c>
+      <c r="E73">
+        <v>-0.5090824980270259</v>
+      </c>
+      <c r="F73">
+        <v>-0.3267377307833415</v>
+      </c>
+      <c r="G73">
+        <v>-0.1063065617662538</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1189954040410477</v>
+        <v>0.1128516999438946</v>
       </c>
       <c r="C74">
-        <v>-0.1166767583731894</v>
+        <v>-0.1013847797423827</v>
       </c>
       <c r="D74">
-        <v>-0.02825827679975817</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01955085471197986</v>
+      </c>
+      <c r="E74">
+        <v>0.06386758692653757</v>
+      </c>
+      <c r="F74">
+        <v>0.07297583942143047</v>
+      </c>
+      <c r="G74">
+        <v>-0.06829011974778143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2627450474379223</v>
+        <v>0.2560572709254909</v>
       </c>
       <c r="C75">
-        <v>-0.1240177500505556</v>
+        <v>-0.1404913593144683</v>
       </c>
       <c r="D75">
-        <v>-0.05316806575265112</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.109686346885192</v>
+      </c>
+      <c r="E75">
+        <v>0.1050907670271037</v>
+      </c>
+      <c r="F75">
+        <v>0.0253566562016168</v>
+      </c>
+      <c r="G75">
+        <v>-0.06503721363212983</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1189912473733576</v>
+        <v>0.1285701376063864</v>
       </c>
       <c r="C76">
-        <v>-0.106105752331769</v>
+        <v>-0.1055914616628248</v>
       </c>
       <c r="D76">
-        <v>-0.03896180460554188</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.0497954816507797</v>
+      </c>
+      <c r="E76">
+        <v>0.0754782475603273</v>
+      </c>
+      <c r="F76">
+        <v>0.07413459777454962</v>
+      </c>
+      <c r="G76">
+        <v>-0.05384883662697195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07352763271546844</v>
+        <v>0.06671096280228281</v>
       </c>
       <c r="C77">
-        <v>-0.05608453007576308</v>
+        <v>-0.06185772981861558</v>
       </c>
       <c r="D77">
-        <v>0.03671036112308341</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06018656005700792</v>
+      </c>
+      <c r="E77">
+        <v>0.04524029165740935</v>
+      </c>
+      <c r="F77">
+        <v>0.1152470712157498</v>
+      </c>
+      <c r="G77">
+        <v>0.1287917770751578</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04548176074234779</v>
+        <v>0.04206556999927392</v>
       </c>
       <c r="C78">
-        <v>-0.04514335571326473</v>
+        <v>-0.05267059754773561</v>
       </c>
       <c r="D78">
-        <v>0.007127376308058193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.06263884375393686</v>
+      </c>
+      <c r="E78">
+        <v>-0.01247965397617759</v>
+      </c>
+      <c r="F78">
+        <v>0.1035449059458207</v>
+      </c>
+      <c r="G78">
+        <v>-0.005076948010982072</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.01136372170670849</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.03427725230196856</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03990811944543171</v>
+      </c>
+      <c r="E79">
+        <v>0.03883885449928429</v>
+      </c>
+      <c r="F79">
+        <v>0.02269742892832928</v>
+      </c>
+      <c r="G79">
+        <v>-0.03846986205993867</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.05101470100240209</v>
+        <v>0.03915987991927315</v>
       </c>
       <c r="C80">
-        <v>-0.05049467965461978</v>
+        <v>-0.04406550196623272</v>
       </c>
       <c r="D80">
-        <v>0.02794386672024895</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04529799446661062</v>
+      </c>
+      <c r="E80">
+        <v>0.004123750961182695</v>
+      </c>
+      <c r="F80">
+        <v>0.04141731353640071</v>
+      </c>
+      <c r="G80">
+        <v>0.04366529467930674</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1386052598705763</v>
+        <v>0.1414151418725471</v>
       </c>
       <c r="C81">
-        <v>-0.08189926969379849</v>
+        <v>-0.09581696229178401</v>
       </c>
       <c r="D81">
-        <v>-0.02999704259248415</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07903515384511504</v>
+      </c>
+      <c r="E81">
+        <v>0.09035569925984614</v>
+      </c>
+      <c r="F81">
+        <v>0.0344109398839799</v>
+      </c>
+      <c r="G81">
+        <v>-0.05448754310101813</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.07077475565654116</v>
+        <v>0.1917562800995055</v>
       </c>
       <c r="C82">
-        <v>-0.04403394416891534</v>
+        <v>-0.1363011983761148</v>
       </c>
       <c r="D82">
-        <v>-0.02556403997462544</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2162617921867446</v>
+      </c>
+      <c r="E82">
+        <v>0.03865900647838023</v>
+      </c>
+      <c r="F82">
+        <v>0.06161377170421735</v>
+      </c>
+      <c r="G82">
+        <v>-0.02188809967638834</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02791514077154712</v>
+        <v>0.02726158348423888</v>
       </c>
       <c r="C83">
-        <v>-0.0197634199918489</v>
+        <v>-0.03561542225163582</v>
       </c>
       <c r="D83">
-        <v>0.01926773273729052</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03434862375305859</v>
+      </c>
+      <c r="E83">
+        <v>-0.002072599421062761</v>
+      </c>
+      <c r="F83">
+        <v>0.0515645638443686</v>
+      </c>
+      <c r="G83">
+        <v>0.02520488138086178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2413888144817317</v>
+        <v>0.2092844662090765</v>
       </c>
       <c r="C85">
-        <v>-0.1159632052415753</v>
+        <v>-0.1226457491111019</v>
       </c>
       <c r="D85">
-        <v>-0.1283446730868064</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1064245878628366</v>
+      </c>
+      <c r="E85">
+        <v>0.02728525856972515</v>
+      </c>
+      <c r="F85">
+        <v>-0.01885229607723422</v>
+      </c>
+      <c r="G85">
+        <v>-0.1108342000891587</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.008915539849619446</v>
+        <v>0.01240227133910379</v>
       </c>
       <c r="C86">
-        <v>-0.02661754147162739</v>
+        <v>-0.03273820478908737</v>
       </c>
       <c r="D86">
-        <v>0.03287909308941316</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07430492358889017</v>
+      </c>
+      <c r="E86">
+        <v>0.01710282610216799</v>
+      </c>
+      <c r="F86">
+        <v>0.150802865555742</v>
+      </c>
+      <c r="G86">
+        <v>0.010131095587838</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.0134349271118815</v>
+        <v>0.02029178749476888</v>
       </c>
       <c r="C87">
-        <v>-0.02558016073148631</v>
+        <v>-0.01830084975858034</v>
       </c>
       <c r="D87">
-        <v>0.08481966483085802</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09783889507496972</v>
+      </c>
+      <c r="E87">
+        <v>0.05830531716795339</v>
+      </c>
+      <c r="F87">
+        <v>0.1076768141598176</v>
+      </c>
+      <c r="G87">
+        <v>0.03513433845538864</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1008855149035903</v>
+        <v>0.08970204552491708</v>
       </c>
       <c r="C88">
-        <v>-0.07482991921480876</v>
+        <v>-0.06222280292938515</v>
       </c>
       <c r="D88">
-        <v>-0.0190914460654084</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0125844158294154</v>
+      </c>
+      <c r="E88">
+        <v>0.01810684116455549</v>
+      </c>
+      <c r="F88">
+        <v>0.07636218960359471</v>
+      </c>
+      <c r="G88">
+        <v>0.03179071813180787</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1908605870648137</v>
+        <v>0.2145465321065144</v>
       </c>
       <c r="C89">
-        <v>0.3744788503766143</v>
+        <v>0.3783192376427558</v>
       </c>
       <c r="D89">
-        <v>-0.01792242108903858</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02102232748258567</v>
+      </c>
+      <c r="E89">
+        <v>0.0245249961138924</v>
+      </c>
+      <c r="F89">
+        <v>0.09107095457379398</v>
+      </c>
+      <c r="G89">
+        <v>0.07178993132433303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1773553297039286</v>
+        <v>0.1991810998237872</v>
       </c>
       <c r="C90">
-        <v>0.3516287697629012</v>
+        <v>0.3237212931308407</v>
       </c>
       <c r="D90">
-        <v>0.002144092648597149</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01860637836711802</v>
+      </c>
+      <c r="E90">
+        <v>0.05221477049327227</v>
+      </c>
+      <c r="F90">
+        <v>0.05892417308574491</v>
+      </c>
+      <c r="G90">
+        <v>0.01562426483964179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2028360581528619</v>
+        <v>0.1935279382670511</v>
       </c>
       <c r="C91">
-        <v>-0.114448846450917</v>
+        <v>-0.1375199230098566</v>
       </c>
       <c r="D91">
-        <v>-0.04977210296886971</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.09251037640797669</v>
+      </c>
+      <c r="E91">
+        <v>0.08788654823327614</v>
+      </c>
+      <c r="F91">
+        <v>0.04994798431342924</v>
+      </c>
+      <c r="G91">
+        <v>-0.05301197125067932</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1709593351359076</v>
+        <v>0.1804380093216986</v>
       </c>
       <c r="C92">
-        <v>0.2779835165250119</v>
+        <v>0.2805504068802916</v>
       </c>
       <c r="D92">
-        <v>-0.002043992890076252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.003000264123367026</v>
+      </c>
+      <c r="E92">
+        <v>0.0751489873891248</v>
+      </c>
+      <c r="F92">
+        <v>0.07655992093111708</v>
+      </c>
+      <c r="G92">
+        <v>0.01647316647361188</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1957941051193863</v>
+        <v>0.2209694446426297</v>
       </c>
       <c r="C93">
-        <v>0.3394960853764872</v>
+        <v>0.3235433597833753</v>
       </c>
       <c r="D93">
-        <v>-0.0002920617367710535</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.006317311181459031</v>
+      </c>
+      <c r="E93">
+        <v>0.03985195017510357</v>
+      </c>
+      <c r="F93">
+        <v>0.06104544081277041</v>
+      </c>
+      <c r="G93">
+        <v>-0.0288025908234347</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.281187493247511</v>
+        <v>0.3441998679549638</v>
       </c>
       <c r="C94">
-        <v>-0.1493279353448587</v>
+        <v>-0.1928520562606061</v>
       </c>
       <c r="D94">
-        <v>-0.1232729235966523</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4397402166907109</v>
+      </c>
+      <c r="E94">
+        <v>0.2558831959038029</v>
+      </c>
+      <c r="F94">
+        <v>-0.4270518296973607</v>
+      </c>
+      <c r="G94">
+        <v>0.2581207087616977</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0910968730021266</v>
+        <v>0.08449455449882549</v>
       </c>
       <c r="C95">
-        <v>-0.07497286077408784</v>
+        <v>-0.07515295123042104</v>
       </c>
       <c r="D95">
-        <v>0.06452804699561947</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1382543896305702</v>
+      </c>
+      <c r="E95">
+        <v>-0.1333134468290057</v>
+      </c>
+      <c r="F95">
+        <v>0.1216460290216703</v>
+      </c>
+      <c r="G95">
+        <v>0.9008605091442079</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2082055477375669</v>
+        <v>0.1910395985045431</v>
       </c>
       <c r="C98">
-        <v>-0.02270292709813115</v>
+        <v>-0.03540405788346292</v>
       </c>
       <c r="D98">
-        <v>0.04591251599971715</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1570723780492929</v>
+      </c>
+      <c r="E98">
+        <v>-0.1677609486287563</v>
+      </c>
+      <c r="F98">
+        <v>-0.05468795688182638</v>
+      </c>
+      <c r="G98">
+        <v>-0.1014190169201594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01178692959223737</v>
+        <v>0.007242925137269866</v>
       </c>
       <c r="C101">
-        <v>-0.0261449278116248</v>
+        <v>-0.02415715626997804</v>
       </c>
       <c r="D101">
-        <v>-0.01287519165414902</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01819782821647627</v>
+      </c>
+      <c r="E101">
+        <v>0.01434981436626417</v>
+      </c>
+      <c r="F101">
+        <v>0.09220316292369998</v>
+      </c>
+      <c r="G101">
+        <v>-0.003220245030160372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1230214945581214</v>
+        <v>0.1244213127679209</v>
       </c>
       <c r="C102">
-        <v>-0.0751446463082661</v>
+        <v>-0.09781214346817096</v>
       </c>
       <c r="D102">
-        <v>-0.02696186230961431</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04530752990920017</v>
+      </c>
+      <c r="E102">
+        <v>0.003692211247842898</v>
+      </c>
+      <c r="F102">
+        <v>0.02779762577818621</v>
+      </c>
+      <c r="G102">
+        <v>-0.01525445385381365</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
